--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B410104-E09D-4BA2-9774-735F1D71527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7867DF-A385-468A-862A-34FAEDC2EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$952</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$846</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1061">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Kình Dương, Lực Sỹ đồng cung tại Phụ Mẫu</t>
   </si>
   <si>
-    <t>Đà La toạ thủ cung Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Hỏa Tinh toạ thủ cung Phụ Mẫu</t>
   </si>
   <si>
@@ -288,84 +285,6 @@
     <t>Thiên Phủ tọa thủ cung Phụ Mẫu</t>
   </si>
   <si>
-    <t>Người tuổi Giáp có Thiên Phủ tọa thủ cung Phụ Mẫu ở Tuất không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thiên Phủ tọa thủ cung Phụ Mẫu ở Tuất không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Thiên Phủ tọa thủ cung Phụ Mẫu ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Nham có Thiên Phủ tọa thủ cung Phụ Mẫu ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Thiên Phủ tọa thủ cung Phụ Mẫu ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Thiên Tướng</t>
-  </si>
-  <si>
-    <t>Người tuổi Nham có Thiên Phủ tọa thủ cung Phụ Mẫu ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Thiên Tướng</t>
-  </si>
-  <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Sửu gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Sửu gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Mùi gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Mùi gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Thìn gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Thìn gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Phụ Mẫu ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Thiên Cơ tọa thủ cung Phụ Mẫu ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thiên Cơ tọa thủ cung Phụ Mẫu ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Phụ Mẫu ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Phụ Mẫu ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Thiên Cơ tọa thủ cung Phụ Mẫu ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thiên Cơ tọa thủ cung Phụ Mẫu ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Phụ Mẫu ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Phụ Mẫu ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Phụ Mẫu ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Thiên Cơ tọa thủ cung Phụ Mẫu ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Phụ Mẫu ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Phụ Mẫu ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Thiên Cơ tọa thủ cung Phụ Mẫu ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
     <t>Tuổi Bính Liêm Trinh tọa thủ cung Phụ Mẫu ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
   </si>
   <si>
@@ -501,105 +420,9 @@
     <t>Địa Không toạ thủ cung Phụ Mẫu ở Tý gặp Tử Vi, Thiên Phủ</t>
   </si>
   <si>
-    <t>Người tuổi Giáp có Thất Sát tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi Giáp có Thất Sát tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Thất Sát tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Thất Sát tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Thất Sát tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Thất Sát tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thất Sát tọa thủ cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Thất Sát tọa thủ cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thất Sát tọa thủ cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Thất Sát tọa thủ cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thất Sát tọa thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Thất Sát tọa thủ cung Phụ Mẫu ở Mùi</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Phụ Mẫu ở Mùi</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Thất Sát đồng cung Kình Dương tại cung Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Người tuổi Mậu có Thất Sát đồng cung Kình Dương tại cung Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Tuổi Bính Liêm Trinh tọa thủ cung Phụ Mẫu ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
   </si>
   <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Tuất gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Tuất gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Dần gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Dần gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiMậu có Tham Lang tọa thủ cung Phụ Mẫu ở Thân gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổiKỷ có Tham Lang tọa thủ cung Phụ Mẫu ở Thân gặp các sao:  Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Sửu gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Sửu gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Mùi gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Mùi gặp Kình Dương, Hoá Kỵ</t>
-  </si>
-  <si>
     <t>Địa Kiếp toạ thủ cung Phụ Mẫu ở Mão gặp Tử Vi, Thiên Phủ</t>
   </si>
   <si>
@@ -882,12 +705,6 @@
     <t>Hoá Lộc, Tham Lang, Vũ Khúc đồng cung tại Phụ Mẫu ở Mùi</t>
   </si>
   <si>
-    <t>Người tuổi Đinh có Hoá Lộc toạ thủ cung Phụ Mẫu gặp Lộc Tồn ở Tật Ách</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỵ có Hoá Lộc toạ thủ cung Phụ Mẫu gặp Lộc Tồn ở Tật Ách</t>
-  </si>
-  <si>
     <t>Hoá Lộc, Thiên Lương đồng cung tại Phụ Mẫu ở Ngọ</t>
   </si>
   <si>
@@ -1011,148 +828,13 @@
     <t>Cung Phụ Mẫu Vô Chính Diệu gặp Thái Dương, Thái Âm</t>
   </si>
   <si>
-    <t>Người tuổi Đinh có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Thìn</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất</t>
-  </si>
-  <si>
-    <t>Người tuổi Canh có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn tọa thủ cung Phụ Mẫu ở Tuất</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Cự Môn tọa thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Cự Môn tọa thủ cung Phụ Mẫu ở Mùi</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn tọa thủ cung Phụ Mẫu ở Mùi</t>
-  </si>
-  <si>
     <t>Cự Môn tọa thủ cung Phụ Mẫu ở Dần đồng cung Thái Dương</t>
   </si>
   <si>
     <t>Cự Môn tọa thủ cung Phụ Mẫu ở Thân đồng cung Thái Dương</t>
   </si>
   <si>
-    <t>Người tuổi Ất có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Bính có Cự Môn đồng cung Thiên Cơ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Thiên Lương tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Thiên Lương tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Thiên Lương tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
     <t>Thất Sát tọa thủ cung Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Phá Quân tọa thủ cung Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
-    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Phá Quân tọa thủ cung Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Phá Quân tọa thủ cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Phá Quân tọa thủ cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Phá Quân tọa thủ cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Người tuổi Ất có Phá Quân tọa thủ cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Tân có Phá Quân tọa thủ cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi Quý có Phá Quân tọa thủ cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Người tuổi G. có Phá Quân tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi G. có Phá Quân tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi C. có Phá Quân tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi C. có Phá Quân tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Đ. có Phá Quân tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi Đ. có Phá Quân tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi K. có Phá Quân tọa thủ cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Người tuổi K. có Phá Quân tọa thủ cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Người tuổi Mậu có Phá Quân tọa thủ cung Phụ Mẫu ở Tỵ</t>
-  </si>
-  <si>
-    <t>Người tuổi Mậu có Phá Quân tọa thủ cung Phụ Mẫu ở Hợi</t>
   </si>
   <si>
     <t>Văn Khúc toạ thủ cung Phụ Mẫu</t>
@@ -3891,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G952"/>
+  <dimension ref="A2:G846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A931" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B949" sqref="B949"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1145</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3917,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>935</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3925,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>936</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3933,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>937</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3941,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>938</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3949,7 +3631,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>939</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,10 +3652,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>940</v>
+        <v>834</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>941</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3981,7 +3663,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3989,7 +3671,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3997,7 +3679,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4005,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4013,7 +3695,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4021,7 +3703,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>968</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4029,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>968</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4037,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>968</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4045,7 +3727,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>968</v>
+        <v>862</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4053,7 +3735,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>968</v>
+        <v>862</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1011</v>
+        <v>905</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4157,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1010</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,15 +3847,15 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1015</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4184,7 +3866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4216,20 +3898,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,23 +3922,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4272,7 +3954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -4280,23 +3962,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -4312,7 +3994,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -4320,7 +4002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -4344,7 +4026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -4352,7 +4034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4376,7 +4058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -4384,7 +4066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4408,7 +4090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4416,7 +4098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4440,7 +4122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -4448,7 +4130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4464,7 +4146,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4472,7 +4154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4480,20 +4162,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>975</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4512,7 +4194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4520,7 +4202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4528,7 +4210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4536,7 +4218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4565,7 +4247,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>94</v>
+        <v>912</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4573,10 +4255,10 @@
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4608,7 +4290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4640,7 +4322,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4656,7 +4338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4664,7 +4346,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4672,7 +4354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4680,7 +4362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4688,7 +4370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4696,7 +4378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4704,7 +4386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4736,7 +4418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4752,7 +4434,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4768,7 +4450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -4781,7 +4463,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1018</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4789,10 +4471,10 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -4800,7 +4482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -4824,7 +4506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -4832,7 +4514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -4856,7 +4538,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -4880,7 +4562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>134</v>
       </c>
@@ -4888,7 +4570,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -4912,7 +4594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -4920,7 +4602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -4944,7 +4626,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -4952,7 +4634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -4976,7 +4658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -4984,7 +4666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -5008,7 +4690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
@@ -5016,7 +4698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -5040,7 +4722,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>154</v>
       </c>
@@ -5048,7 +4730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -5072,7 +4754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>158</v>
       </c>
@@ -5104,7 +4786,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
@@ -5136,7 +4818,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>166</v>
       </c>
@@ -5168,7 +4850,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>170</v>
       </c>
@@ -5200,7 +4882,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>174</v>
       </c>
@@ -5208,7 +4890,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>175</v>
       </c>
@@ -5216,7 +4898,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
@@ -5224,7 +4906,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>177</v>
       </c>
@@ -5248,7 +4930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>180</v>
       </c>
@@ -5256,7 +4938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>181</v>
       </c>
@@ -5304,12 +4986,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>187</v>
+        <v>917</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5336,7 +5018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>191</v>
       </c>
@@ -5357,7 +5039,7 @@
         <v>193</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>193</v>
+        <v>918</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5416,7 +5098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -5424,12 +5106,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>202</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5448,7 +5130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -5456,7 +5138,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
@@ -5480,12 +5162,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>209</v>
+        <v>920</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5504,7 +5186,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>212</v>
       </c>
@@ -5512,7 +5194,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>213</v>
       </c>
@@ -5528,7 +5210,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>215</v>
       </c>
@@ -5536,7 +5218,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>216</v>
       </c>
@@ -5576,7 +5258,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>221</v>
       </c>
@@ -5608,7 +5290,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>225</v>
       </c>
@@ -5640,7 +5322,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>229</v>
       </c>
@@ -5680,7 +5362,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>234</v>
       </c>
@@ -5688,7 +5370,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>235</v>
       </c>
@@ -5696,7 +5378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>236</v>
       </c>
@@ -5704,7 +5386,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>237</v>
       </c>
@@ -5720,7 +5402,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>239</v>
       </c>
@@ -5744,7 +5426,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>242</v>
       </c>
@@ -5781,10 +5463,10 @@
         <v>246</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>247</v>
       </c>
@@ -5792,7 +5474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -5808,7 +5490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -5824,12 +5506,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1024</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5856,7 +5538,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -5864,7 +5546,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>257</v>
       </c>
@@ -5872,7 +5554,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -5888,7 +5570,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -5896,12 +5578,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1025</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5912,23 +5594,23 @@
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -5941,7 +5623,7 @@
         <v>266</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>266</v>
+        <v>884</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5949,7 +5631,7 @@
         <v>267</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>267</v>
+        <v>885</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5957,18 +5639,18 @@
         <v>268</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>270</v>
       </c>
@@ -5976,7 +5658,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -5992,7 +5674,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -6000,7 +5682,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -6008,7 +5690,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -6024,7 +5706,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -6048,7 +5730,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>280</v>
       </c>
@@ -6072,7 +5754,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>283</v>
       </c>
@@ -6096,7 +5778,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>286</v>
       </c>
@@ -6120,7 +5802,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -6128,7 +5810,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>290</v>
       </c>
@@ -6152,7 +5834,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>293</v>
       </c>
@@ -6160,7 +5842,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -6176,7 +5858,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -6192,7 +5874,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -6200,7 +5882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>299</v>
       </c>
@@ -6216,7 +5898,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -6224,7 +5906,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>302</v>
       </c>
@@ -6232,7 +5914,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -6256,7 +5938,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>306</v>
       </c>
@@ -6264,7 +5946,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -6272,7 +5954,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -6288,7 +5970,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -6312,7 +5994,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -6336,7 +6018,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -6344,7 +6026,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -6352,7 +6034,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>318</v>
       </c>
@@ -6360,7 +6042,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>319</v>
       </c>
@@ -6368,7 +6050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -6392,7 +6074,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>323</v>
       </c>
@@ -6400,20 +6082,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>961</v>
+        <v>325</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6424,7 +6106,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>327</v>
       </c>
@@ -6448,7 +6130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -6456,7 +6138,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -6480,7 +6162,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>334</v>
       </c>
@@ -6496,7 +6178,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>336</v>
       </c>
@@ -6504,7 +6186,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -6525,15 +6207,15 @@
         <v>339</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>991</v>
+        <v>340</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6552,7 +6234,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>343</v>
       </c>
@@ -6576,7 +6258,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>346</v>
       </c>
@@ -6600,7 +6282,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>349</v>
       </c>
@@ -6629,7 +6311,7 @@
         <v>352</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1001</v>
+        <v>352</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6696,15 +6378,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>362</v>
       </c>
@@ -6712,7 +6394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>363</v>
       </c>
@@ -6760,15 +6442,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>370</v>
       </c>
@@ -6776,7 +6458,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>371</v>
       </c>
@@ -6808,15 +6490,15 @@
         <v>374</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>376</v>
       </c>
@@ -6824,7 +6506,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>377</v>
       </c>
@@ -6832,7 +6514,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>378</v>
       </c>
@@ -6848,15 +6530,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>381</v>
       </c>
@@ -6864,7 +6546,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>382</v>
       </c>
@@ -6872,7 +6554,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>383</v>
       </c>
@@ -6896,7 +6578,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>386</v>
       </c>
@@ -6920,7 +6602,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>389</v>
       </c>
@@ -6928,7 +6610,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>390</v>
       </c>
@@ -6944,7 +6626,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>392</v>
       </c>
@@ -6960,7 +6642,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>394</v>
       </c>
@@ -6968,7 +6650,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>395</v>
       </c>
@@ -6976,7 +6658,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>396</v>
       </c>
@@ -6984,7 +6666,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>397</v>
       </c>
@@ -6992,1466 +6674,1469 @@
         <v>397</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+    <row r="402" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="B402" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="B403" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="B404" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="B405" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="B406" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="B407" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="B408" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="B409" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="B410" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="B411" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="B412" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="B413" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="B414" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B403" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+      <c r="B415" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+      <c r="B416" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="B417" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="B418" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="B419" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="B420" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="B421" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="B422" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="B423" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="B424" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="B425" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="B426" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="B427" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="B428" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="B429" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="B430" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="B431" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="B432" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="B433" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+      <c r="B434" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+      <c r="B435" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="B436" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="B437" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+      <c r="B438" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="B439" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="B440" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="B441" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="B442" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="B443" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="B444" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="B454" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="B456" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="B457" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="B458" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="B459" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="B460" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="B461" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="B462" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+      <c r="B463" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+      <c r="B464" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+      <c r="B465" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+      <c r="B466" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="B467" s="1" t="s">
-        <v>477</v>
+        <v>861</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>478</v>
+        <v>861</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>479</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>480</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>481</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>482</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>483</v>
+        <v>855</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>484</v>
+        <v>855</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>492</v>
+        <v>855</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>496</v>
+        <v>851</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="B506" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+      <c r="B507" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+      <c r="B508" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+      <c r="B509" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="B510" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="B511" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
+      <c r="B512" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
+      <c r="B513" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
+      <c r="B514" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
+      <c r="B515" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
+      <c r="B516" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
+      <c r="B517" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
+      <c r="B518" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
+      <c r="B519" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+      <c r="B520" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+      <c r="B521" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B515" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+      <c r="B522" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B516" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+      <c r="B523" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
+      <c r="B524" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B518" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
+      <c r="B525" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
+      <c r="B526" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
+      <c r="B527" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
+      <c r="B528" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
+      <c r="B529" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
+      <c r="B530" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
+      <c r="B531" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D525" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
+      <c r="B532" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
+      <c r="B533" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
+      <c r="B534" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
+      <c r="B535" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
+      <c r="B536" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
+      <c r="B537" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B531" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
+      <c r="B538" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+      <c r="B539" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+      <c r="B540" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+      <c r="B541" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+      <c r="B542" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+      <c r="B543" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+      <c r="B544" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="B545" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="B546" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+      <c r="B547" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B541" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="B548" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="B549" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="B551" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+      <c r="B552" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="B553" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="B554" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B547" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="B555" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="B556" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+      <c r="B557" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="B558" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="B561" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>942</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -8459,1370 +8144,1390 @@
         <v>555</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="B569" s="1" t="s">
-        <v>970</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>967</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>967</v>
+        <v>884</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>967</v>
+        <v>884</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B573" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="B574" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B574" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="B575" s="1" t="s">
-        <v>1147</v>
+        <v>857</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B576" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+      <c r="B577" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B577" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+      <c r="B578" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B578" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="B579" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B579" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+      <c r="B580" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B580" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="B581" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="B582" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="B583" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B583" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="B584" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="B585" s="1" t="s">
-        <v>961</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>961</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B587" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="B588" s="1" t="s">
-        <v>961</v>
+        <v>843</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B589" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="B590" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B590" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="B591" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="B592" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B592" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="B593" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="B594" s="1" t="s">
-        <v>955</v>
+        <v>845</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B595" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="B596" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B596" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="B597" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>976</v>
+        <v>839</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>976</v>
+        <v>846</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>976</v>
+        <v>853</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>985</v>
+        <v>858</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>982</v>
+        <v>857</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>984</v>
+        <v>863</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>981</v>
+        <v>863</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>983</v>
+        <v>866</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>985</v>
+        <v>867</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>984</v>
+        <v>620</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>982</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>983</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>986</v>
+        <v>908</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>986</v>
+        <v>626</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>986</v>
+        <v>911</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>996</v>
+        <v>945</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>999</v>
+        <v>641</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>997</v>
+        <v>643</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>997</v>
+        <v>644</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>999</v>
+        <v>646</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1003</v>
+        <v>650</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1004</v>
+        <v>652</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1009</v>
+        <v>655</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1150</v>
+        <v>668</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>1153</v>
+        <v>671</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1151</v>
+        <v>672</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>1152</v>
+        <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>1000</v>
+        <v>678</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>963</v>
+        <v>679</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1145</v>
+        <v>681</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>1144</v>
+        <v>682</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>966</v>
+        <v>687</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>1143</v>
+        <v>690</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>1155</v>
+        <v>691</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>951</v>
+        <v>700</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="C729"/>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="C730"/>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="C731"/>
+    </row>
+    <row r="732" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C733"/>
+    </row>
+    <row r="734" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="C734"/>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>734</v>
       </c>
@@ -9830,12 +9535,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1016</v>
+        <v>735</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -9843,23 +9548,23 @@
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1017</v>
+        <v>738</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -9878,7 +9583,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>741</v>
       </c>
@@ -9886,7 +9591,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>742</v>
       </c>
@@ -9894,12 +9599,12 @@
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1051</v>
+        <v>743</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -9910,7 +9615,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>745</v>
       </c>
@@ -9918,7 +9623,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>746</v>
       </c>
@@ -9942,7 +9647,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>749</v>
       </c>
@@ -9950,7 +9655,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>750</v>
       </c>
@@ -9958,7 +9663,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>751</v>
       </c>
@@ -9966,7 +9671,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>752</v>
       </c>
@@ -9982,7 +9687,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>754</v>
       </c>
@@ -9990,7 +9695,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>755</v>
       </c>
@@ -10030,7 +9735,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>760</v>
       </c>
@@ -10270,7 +9975,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>790</v>
       </c>
@@ -10310,7 +10015,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>795</v>
       </c>
@@ -10318,7 +10023,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>796</v>
       </c>
@@ -10350,7 +10055,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>800</v>
       </c>
@@ -10358,7 +10063,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>801</v>
       </c>
@@ -10366,7 +10071,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>802</v>
       </c>
@@ -10374,7 +10079,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>803</v>
       </c>
@@ -10382,7 +10087,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>804</v>
       </c>
@@ -10390,7 +10095,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>805</v>
       </c>
@@ -10398,7 +10103,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>806</v>
       </c>
@@ -10406,7 +10111,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>807</v>
       </c>
@@ -10414,15 +10119,15 @@
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>809</v>
       </c>
@@ -10430,7 +10135,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>810</v>
       </c>
@@ -10438,1225 +10143,363 @@
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="813" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D813" s="1"/>
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
+      <c r="G813" s="1"/>
+    </row>
+    <row r="814" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D814" s="1"/>
+      <c r="E814" s="1"/>
+      <c r="F814" s="1"/>
+      <c r="G814" s="1"/>
+    </row>
+    <row r="815" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D815" s="1"/>
+      <c r="E815" s="1"/>
+      <c r="F815" s="1"/>
+      <c r="G815" s="1"/>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D831" s="1"/>
+      <c r="E831" s="1"/>
+      <c r="F831" s="2"/>
+    </row>
+    <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D832" s="1"/>
+      <c r="E832" s="1"/>
+      <c r="F832" s="1"/>
+    </row>
+    <row r="833" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D833" s="1"/>
+      <c r="E833" s="1"/>
+      <c r="F833" s="1"/>
+      <c r="G833" s="1"/>
+    </row>
+    <row r="834" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D834" s="1"/>
+      <c r="E834" s="1"/>
+      <c r="F834" s="2"/>
+    </row>
+    <row r="835" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D835" s="1"/>
+      <c r="E835" s="1"/>
+      <c r="F835" s="1"/>
+      <c r="G835" s="1"/>
+    </row>
+    <row r="836" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B813" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B814" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
+      <c r="B836" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D836" s="1"/>
+      <c r="E836" s="1"/>
+      <c r="F836" s="1"/>
+    </row>
+    <row r="837" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D837" s="1"/>
+      <c r="E837" s="1"/>
+      <c r="F837" s="1"/>
+    </row>
+    <row r="838" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B815" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="816" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
+      <c r="B838" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D838" s="1"/>
+      <c r="E838" s="1"/>
+      <c r="F838" s="1"/>
+    </row>
+    <row r="839" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D839" s="1"/>
+      <c r="E839" s="1"/>
+      <c r="F839" s="1"/>
+    </row>
+    <row r="840" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D840" s="1"/>
+      <c r="E840" s="1"/>
+      <c r="F840" s="1"/>
+    </row>
+    <row r="841" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D841" s="1"/>
+      <c r="E841" s="1"/>
+      <c r="F841" s="1"/>
+      <c r="G841" s="1"/>
+    </row>
+    <row r="842" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B816" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C816" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="817" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B817" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C817" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B818" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B819" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="820" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B820" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C820" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D820" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B821" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="822" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B822" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="823" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
+      <c r="B842" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D842" s="1"/>
+      <c r="E842" s="1"/>
+      <c r="F842" s="1"/>
+      <c r="G842" s="1"/>
+    </row>
+    <row r="843" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B823" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B824" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B825" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="827" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B828" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B829" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B830" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="832" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="833" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B833" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B835" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C835"/>
-    </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B836" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C836"/>
-    </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B837" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C837"/>
-    </row>
-    <row r="838" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B838" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C838" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B839" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C839"/>
-    </row>
-    <row r="840" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B840" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C840"/>
-    </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B841" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B842" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="B843" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+      <c r="D843" s="1"/>
+      <c r="E843" s="1"/>
+      <c r="F843" s="1"/>
+      <c r="G843" s="1"/>
+    </row>
+    <row r="844" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>843</v>
+        <v>1050</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+      <c r="D844" s="1"/>
+      <c r="E844" s="1"/>
+      <c r="F844" s="2"/>
+    </row>
+    <row r="845" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>844</v>
+        <v>1051</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>845</v>
+        <v>1052</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B847" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B848" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B850" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B851" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B852" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B853" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B854" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B856" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B858" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B859" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B860" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B861" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B862" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B863" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B864" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B865" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B867" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B868" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B869" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B870" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B871" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B873" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B874" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B875" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B876" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B877" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B878" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B879" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B880" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B881" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B882" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B883" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B884" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B885" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B886" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B887" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B888" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B889" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B890" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B891" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B892" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B893" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B894" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A895" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B895" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B896" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B897" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B898" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B899" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B900" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B901" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A902" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B902" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A903" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B903" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B904" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B905" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B906" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B907" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B908" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B909" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B910" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B911" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B912" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A913" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B913" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A914" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B914" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A915" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B915" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A916" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B916" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A917" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B917" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A918" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B918" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="919" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A919" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B919" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D919" s="1"/>
-      <c r="E919" s="1"/>
-      <c r="F919" s="1"/>
-      <c r="G919" s="1"/>
-    </row>
-    <row r="920" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A920" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B920" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="C920" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D920" s="1"/>
-      <c r="E920" s="1"/>
-      <c r="F920" s="1"/>
-      <c r="G920" s="1"/>
-    </row>
-    <row r="921" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A921" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B921" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D921" s="1"/>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
-      <c r="G921" s="1"/>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A922" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B922" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A923" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B923" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="924" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A924" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B924" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A925" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B925" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="926" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A926" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B926" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A927" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B927" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="928" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A928" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B928" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A929" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B929" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="930" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A930" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B930" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A931" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B931" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A932" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B932" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="933" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A933" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="934" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A934" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="935" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A935" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B935" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="936" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A936" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B936" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="937" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A937" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B937" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C937" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D937" s="1"/>
-      <c r="E937" s="1"/>
-      <c r="F937" s="2"/>
-    </row>
-    <row r="938" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A938" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B938" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
-    </row>
-    <row r="939" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A939" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B939" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D939" s="1"/>
-      <c r="E939" s="1"/>
-      <c r="F939" s="1"/>
-      <c r="G939" s="1"/>
-    </row>
-    <row r="940" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A940" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B940" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C940" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="2"/>
-    </row>
-    <row r="941" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A941" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B941" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D941" s="1"/>
-      <c r="E941" s="1"/>
-      <c r="F941" s="1"/>
-      <c r="G941" s="1"/>
-    </row>
-    <row r="942" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A942" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B942" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
-    </row>
-    <row r="943" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A943" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B943" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D943" s="1"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="1"/>
-    </row>
-    <row r="944" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A944" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="B944" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
-    </row>
-    <row r="945" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A945" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B945" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D945" s="1"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="1"/>
-    </row>
-    <row r="946" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A946" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B946" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
-    </row>
-    <row r="947" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A947" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B947" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="D947" s="1"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="1"/>
-      <c r="G947" s="1"/>
-    </row>
-    <row r="948" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A948" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B948" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D948" s="1"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="1"/>
-      <c r="G948" s="1"/>
-    </row>
-    <row r="949" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A949" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B949" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
-      <c r="G949" s="1"/>
-    </row>
-    <row r="950" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A950" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B950" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="2"/>
-    </row>
-    <row r="951" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A951" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B951" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A952" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B952" s="1" t="s">
-        <v>1159</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F952" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:F846" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C429">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7867DF-A385-468A-862A-34FAEDC2EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44019EC3-2CA3-4A63-BC4C-AD7F597CA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1066">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3229,6 +3229,21 @@
   </si>
   <si>
     <t>Con cái nên xa cha mẹ để tránh hình khắc</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -3276,7 +3291,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3573,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G846"/>
+  <dimension ref="A2:G851"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,7 +4277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4250,7 +4285,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -6867,7 +6902,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -7002,7 +7037,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -7127,7 +7162,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
@@ -7138,7 +7173,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
@@ -7267,7 +7302,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>596</v>
       </c>
@@ -8683,7 +8718,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>631</v>
       </c>
@@ -8691,7 +8726,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>632</v>
       </c>
@@ -10198,7 +10233,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>899</v>
       </c>
@@ -10491,14 +10526,58 @@
         <v>1053</v>
       </c>
     </row>
+    <row r="847" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:F846" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1:B846 A852:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C429">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A847:B851">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44019EC3-2CA3-4A63-BC4C-AD7F597CA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404EB434-C23A-4868-8DF4-3721D973F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1071">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3244,6 +3244,21 @@
   </si>
   <si>
     <t>Vị trí cung Phụ Mẫu so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Hóa Lộc ở cung phụ mẫu là chủ về mệnh tạo muốn phụng dưỡng cha mẹ, cũng mong muốn cuộc sống của cha mẹ được nâng cao, là cách suy nghĩ hiếu thuận. Xem xét ở góc độ so sánh, trong cha mẹ sẽ có một người đa tình hơn mệnh tạo, hoặc là người sống có tình.</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Thiên Riêu, Tả Phù, Hữu Bật đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hàm nghĩa đa tình, ở đây cũng ngầm báo có thể sẽ có thêm một người cha hay một người mẹ khả năng cha mẹ có người khác ở bên ngoài tăng lên nhiều, hoặc có khả năng cha mẹ không chỉ là một đôi.</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Thiên Riêu đồng cung tại Phụ Mẫu, Tả Phù, Hữu Bật đồng cung tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Thiên Riêu đồng cung tại Phụ Mẫu, Đào Hoa toạ thủ cung Tật Ách</t>
   </si>
 </sst>
 </file>
@@ -3608,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G851"/>
+  <dimension ref="A2:G854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView tabSelected="1" topLeftCell="A843" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D852" sqref="D852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,7 +4292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -6902,7 +6917,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -7017,6 +7032,9 @@
       <c r="B423" s="1" t="s">
         <v>979</v>
       </c>
+      <c r="C423" s="1" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="424" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
@@ -7037,7 +7055,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -7162,7 +7180,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
@@ -7173,7 +7191,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
@@ -7302,7 +7320,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>596</v>
       </c>
@@ -8718,7 +8736,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>631</v>
       </c>
@@ -8726,7 +8744,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>632</v>
       </c>
@@ -10233,7 +10251,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>899</v>
       </c>
@@ -10534,7 +10552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>1062</v>
       </c>
@@ -10542,7 +10560,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>1063</v>
       </c>
@@ -10564,6 +10582,30 @@
       </c>
       <c r="B851" s="1" t="s">
         <v>1065</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404EB434-C23A-4868-8DF4-3721D973F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816B727-196B-4447-8305-CE38C8CA6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1080">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3259,6 +3259,33 @@
   </si>
   <si>
     <t>Hóa Lộc, Thiên Riêu đồng cung tại Phụ Mẫu, Đào Hoa toạ thủ cung Tật Ách</t>
+  </si>
+  <si>
+    <t>Hóa Quyền là lực hành động, trường hợp Hóa Quyền ở "tha cung", thông thường bản thân mệnh tạo sẽ thiếu động lực, thiếu hành động thực tiễn để đạt thành mộng tưởng, cần phải dựa vào sự trợ giúp của người nhà, cha mẹ. Hơn nữa, vì Hóa Quyền nhập cung phụ mẫu, nên địa vị của mệnh tạo ở trong nhà là ở thế yếu.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền là quá trình đạt thành ước vọng của Hóa Lộc, có thể xem đây là cách hoàn thành mục đích đời người của mệnh tạo, cho nên ước vọng của mệnh tạo sẽ phụ thuộc, dựa vào, hay giao quyền cho cha mẹ, người nhà thực hiện mộng tưởng của mình; thậm chí sẽ mang bối cảnh của cha mẹ đưa vào kế hoạch về nguồn vốn mà mình có thể nắm được</t>
+  </si>
+  <si>
+    <t>Hóa Quyền còn có thể đại biểu cho danh vọng và uy thế, trường hợp Hóa Quyền [năm sinh] ở cung phụ mẫu, nếu các sao ở trong cung hữu lực, thì một trong song thân của mệnh tạo là người có quyền thế. Còn nếu các sao trong cung huynh đệ cũng hữu lực, có thể đoán mệnh tạo sinh ra trong hoàn cảnh khá tốt, còn có thể đoán bối cảnh gia đình của mệnh tạo khá tốt.</t>
+  </si>
+  <si>
+    <t>Trường hợp cung lục thân thấy Hóa Quyền, phần nhiều có quan hệ không tốt với lục thân này, đặc biệt có các sao Phá Quân, Thất Sát đồng cung thì càng nặng. Trường hợp Hóa Quyền [năm sinh] ở cung phụ mẫu, trong nhà cha mẹ có thể khá mạnh; hơn nữa, phần nhiều mệnh tạo có cảm giác cha mẹ mình quá độc đoán, giữa hai đời dễ có sự ngăn cách, hoặc trò chuyện với nhau không được tốt.</t>
+  </si>
+  <si>
+    <t>Thông thường, Hóa Kị nhập cung phụ mẫu và xung kích cung tật ách, sẽ làm tâm lí mất quân bình và thường hay đột ngột có cảm giác ưu uất; nếu có Hóa Quyền [năm sinh] ở cung phụ mẫu, vì Hóa Quyền kiềm chế được Hóa Kị, có thể làm giảm tính hung của Hóa Kị xung cung tật ách, mệnh tạo sẽ mạnh mẽ để đối mặt với vấn đề, thành người không chịu cúi dầu trước trở ngại hay thất bại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vì Hóa Quyền ở đối cung của cung tật ách (nơi sâu thẳm nhất trong tâm hồn), mệnh tạo sẽ dễ vì lực tác động của Hóa Quyền mà muốn dụng công nghiêm túc. Cung phụ mẫu còn là cung vị chủ về "quang minh", cho nên có thể thành tựu ở phương diện nào đó (phần nhiều là về học hành, bằng cấp, v.v..). Hóa Quyền ở cung này sẽ tạo ra một kì vọng trong đời người, cho nên lúc mệnh tạo có được bằng cấp, giấy chứng nhận, phần nhiều là có hướng thực dụng; khác với Hóa Quyền ở cung quan lộc chỉ chủ về học thuật mà không chủ về phát đạt.</t>
+  </si>
+  <si>
+    <t>Cung phụ mẫu là cung vị tài bạch của cung nô bộc, trường hợp Hóa Quyền ở cung vị tài bạch của cung nô bộc, xét ở góc độ tiền bạc, là chủ về bạn bè hay thân nhân khá mẫn cảm với tiền bạc, có khát vọng kiếm tiền, hơn nữa phương thức kiếm tiền của họ nhiều khả năng có liên quan đến cha mẹ của mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung có Hóa Quyền, là chủ về bạn bè hay thần nhân có năng lực khá tốt, còn có tính chuyên nghiệp và thực tế. Nhưng cũng vì lực tác động của Hóa Quyền, nên bạn bè hay thân nhân sẽ làm việc theo nguyên tắc, thiếu thái độ thân thiết và hòa đồng. Cung phụ mẫu là cung vị khí số của con cái, trường hợp Hóa Quyền ở cung vị quan lộc của cung tử nữ, có thể đoán con cái có chí hướng cao, biết tự lập, tự cường và có tự ái; ngoài ra, vận trình học hành của con cái cũng khá tốt. Nhưng cũng vì ảnh hưởng của Hóa Quyền, quan hệ giữa mệnh tạo với con cái không được hòa hợp, quản con cái không nổi.</t>
+  </si>
+  <si>
+    <t>Cung tử nữ còn là cung vị đại biểu cho hợp tác đầu tư, trường hợp Hóa Quyền ở cung vị khí số của cung tử nữ, nếu xem về công ti kinh doanh, cổ đông hợp tác, thì chủ về hiệu quả kinh doanh khá tốt. Cung phụ mẫu còn có thể dùng để xem cấp trên, trường hợp có Hóa Quyền, là cấp trên có năng lực, có quyền lực, ở thế khá mạnh. Hơn nữa, vì Hóa Quyền chủ về thái độ thiếu thân thiết và thiếu hòa đồng, nên sẽ tạo nhiều áp lực khiến mệnh tạo cảm thấy có sự ngăn cách với cấp trên, khó trò chuyện trao đổi với nhau.</t>
   </si>
 </sst>
 </file>
@@ -3623,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G854"/>
+  <dimension ref="A2:K854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D852" sqref="D852"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I423" sqref="I423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,6 +3661,8 @@
     <col min="1" max="2" width="46" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" style="1" customWidth="1"/>
     <col min="4" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" customWidth="1"/>
+    <col min="9" max="11" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6968,7 +6997,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
@@ -6976,7 +7005,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -6984,7 +7013,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
@@ -6998,7 +7027,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
@@ -7009,7 +7038,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
@@ -7017,7 +7046,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
@@ -7025,7 +7054,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
@@ -7036,15 +7065,42 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C424" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -7055,7 +7111,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -7066,7 +7122,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
@@ -7077,7 +7133,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
@@ -7088,7 +7144,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
@@ -7099,7 +7155,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
@@ -7107,7 +7163,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
@@ -7115,7 +7171,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816B727-196B-4447-8305-CE38C8CA6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8D48B-E62E-4F1F-9EE0-1E3E043B6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1093">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3286,6 +3286,46 @@
   </si>
   <si>
     <t>Cung tử nữ còn là cung vị đại biểu cho hợp tác đầu tư, trường hợp Hóa Quyền ở cung vị khí số của cung tử nữ, nếu xem về công ti kinh doanh, cổ đông hợp tác, thì chủ về hiệu quả kinh doanh khá tốt. Cung phụ mẫu còn có thể dùng để xem cấp trên, trường hợp có Hóa Quyền, là cấp trên có năng lực, có quyền lực, ở thế khá mạnh. Hơn nữa, vì Hóa Quyền chủ về thái độ thiếu thân thiết và thiếu hòa đồng, nên sẽ tạo nhiều áp lực khiến mệnh tạo cảm thấy có sự ngăn cách với cấp trên, khó trò chuyện trao đổi với nhau.</t>
+  </si>
+  <si>
+    <t>Hóa Khoa có hàm nghĩa bình hòa, tri thức, khí chất, giáo dục, v.v... Trường hợp Hóa Khoa ở cung phụ mẫu, chủ về cha mẹ là người hiểu biết hoặc có giáo dục, ít nhất nhìn bề ngoài cũng có khí chất, có công phu hàm dưỡng, hoặc là có tố chất học thuật, có năng lực chuyên môn.</t>
+  </si>
+  <si>
+    <t>Trong Tử Vi Đẩu Số, cung lục thân đều có tính so sánh, trường hợp Hóa Khoa ở cung phụ mẫu, là chủ về cha mẹ văn nhã, hữu lễ hơn mệnh tạo, cỏ tố chất học hành và công phu hàm dưỡng sở học đều hơn mệnh tạo. Suy diễn rộng ra là, dưới sự dạy dỗ của cha mẹ, mệnh tạo cũng có nên tảng giáo dục và khí chất khá tốt.</t>
+  </si>
+  <si>
+    <t>Về ý nghĩa, cung phụ mẫu bao gồm song thân, trường hợp Hóa Khoa ở cung phụ mẫu, có thể giải thích là, cha mẹ sống với nhau hòa mục, là tấm gương để mệnh tạo noi theo, trong cách nhìn của mệnh tạo, cha mẹ là hình tượng một đôi vợ chồng rất tốt đẹp. Cung phụ mẫu còn là cung vị đại biểu cho công danh, giấy tờ chứng nhận, v.v... Trường hợp có Hóa Khoa, là chủ về mệnh tạo có học thức, học lực khá tốt; nhất là vì Hóa Khoa ở cung chủ về giấy tờ chứng nhận, nên phần nhiều họ đều có văn bằng cao, lúc đi học có thành tích rất khá.</t>
+  </si>
+  <si>
+    <t>Cung phụ mẫu chủ về "quang minh", thường thường cũng liên quan đến quan ti, quan phi (liên quan đến pháp luật); trường hợp Hóa Khoa ở cung phụ mẫu, là chủ về cha mẹ có tác dụng bảo vệ, bản thân mệnh tạo sẽ không dính đến kiện tụng thị phi. Đặc sắc của Hóa Khoa là rất biết đạo lí, Hóa Khoa ở cung phụ mẫu, cha mẹ là người rất biết đạo lí, đương nhiên duyên phận của mệnh tạo với song thân rất tốt đẹp, ít có sự ngăn cách giữa hai đời. Đối ứng tình hình này trong cuộc đời của mệnh tạo, là lúc còn đi học mệnh tạo ít chống đối cha mẹ, rất biết tự ái, và có lòng tự trọng.</t>
+  </si>
+  <si>
+    <t>Tiếp theo trên, đối với mệnh tạo, song thân có tác dụng rất quan trọng trong quá trình trưởng thành; thêm vào đó, Hóa Khoa có tác dụng bảo vệ, chiếu cố, tuy rơi vào "tha cung", nhưng vẫn có ý nghĩa "song thân là quý nhân" của mệnh tạo, gặp bất cứ vấn đề gì, mệnh tạo đều nghe theo ý kiến của cha mẹ, có tác dụng giúp ích mệnh tạo rất nhiều. Cung phụ mẫu còn đại biểu cho cấp trên trong môi trường làm việc, trường hợp thấy Hóa Khoa là duyên với cấp trên khá tốt, cũng có hàm ý bậc trưởng bối là quý nhân. Thấy Hóa Khoa ở cung phụ mẫu của đại vận, thường thường là được cấp trên thương mến và nâng đỡ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem xét từ góc độ cung tử nữ, cung phụ mẫu là cung vị khí số của cung tử nữ, Hóa Khoa ở cung vị khí số của cung tử nữ, có ý tượng là con cái của mệnh tạo có EQ cao, rất biết tiết chế bản thân, có bản lãnh đế tiến lên. Trường hợp cung phụ mẫu thấy Hóa Kị, sẽ kích phát cung tật ách mà sinh ra bệnh biến, nếu thấy Hóa Khoa ở cung phụ mẫu, thì có thể chuyển hoán Hóa Kị một cách hữu hiệu, phần nhiều cũng có tác dụng bảo vệ sức khỏe. Nhưng đồng thời, cung tật ách bị xung kích là chủ về tâm tình buồn phiền, u uất; có Hóa Khoa ở cung phụ mẫu, thì không vì chịu áp lực mà bị bệnh tâm lí.
+</t>
+  </si>
+  <si>
+    <t>Cung phụ mẫu là đại biểu cho song thân, trường hợp Hóa Kị ở cung phụ mẫu, là chủ về cha mẹ sống với nhau không được hòa hợp, thậm chí còn có nhiều điềm báo khác. Như quan hệ giữa cha và mẹ không đơn thuần, có thể một trong hai người có thêm người khác. Cũng cùng một dạng, cung có thể dung nạp hai người là cung phu thê, có thể dựa vào lí này mà suy ra.</t>
+  </si>
+  <si>
+    <t>Hóa Kị còn có ý tượng là "làm cho rối rắm", "làm phiền" và "phức tạp hóa tình cảm". Vì vậy trường hợp cung phụ mẫu có Hóa Kị, là chủ về cỏ sự ngăn cách giữa hai đời, nhưng mệnh tạo lại rất quan tâm song thân, tức có hiện tượng vừa thương yêu vừa oán giận, hoặc thương yêu người này mà oán giận người kia; cũng có trường hợp đối đãi với cha mẹ không như nhau (có thể đặc biệt gần gũi cha mà xa lánh mẹ, hay ngược lại). Lúc lực tác động của Hóa Kị bị đại vận khơi động, thường thường song thân khó ở chung.</t>
+  </si>
+  <si>
+    <t>Cung phụ mẫu là tượng trưng cho văn thư, công danh, khoa cử; trường hợp có Hóa Kị, tất nhiên sẽ tạo thành lực xung kích quá trình học tập của mệnh tạo, phần nhiều học lực sẽ không cao, hoặc việc học có thời gian đình chỉ tạm thời. Vì Hóa Kị ở cung tượng trưng cho học lực, thông thường là mệnh tạo chọn loại nghề nghiệp khó phát huy những gì đã được học ở trường; phần nhiều sẽ tìm con đường khác, hay học môn mới để vận dụng; có thể trong quá trình học tập đã từng nỗ lực học hai lãnh vực khác nhau. Vì cung phụ mẫu còn tượng trưng cho văn thư, sự quang minh, trường hợp Hóa Kị ở cung phụ mẫu là chủ về mệnh tạo sẽ gặp phiền phức về văn thư, còn liên quan đến danh dự, cho nên khá dễ dính đến kiện tụng thị phi.</t>
+  </si>
+  <si>
+    <t>Nghĩa rộng của cung phụ mẫu không chỉ đại biểu cho cha mẹ, mà còn có bậc trưởng bối, những người bề trên. Trường hợp Hóa Kị ở cung phụ mẫu, là chủ về không có duyên với cấp trên. Nói một cách khác, vì có ý tượng đối đãi đơn phương, nên cấp trên sẽ mang lại rất nhiều áp lực cho mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung phụ mẫu ở cung vị khí số của cung tử nữ, cho nên EQ của con cái không cao, thiếu lòng tự tin, và vấn đề thiếu lòng tự ti của con cái cũng sẽ ảnh hưởng đến mệnh tạo (xung kích cung tật ách của mệnh tạo), có hàm ý là, mệnh tạo rất quan tâm lo lắng cho con cái.</t>
+  </si>
+  <si>
+    <t>Tiếp theo trên, vì Hóa Kị ở cung phụ mẫu, là ở "tha cung", do đó sẽ xung kích cung tật ách. Cung tật ách là đại biểu cho nơi sâu thẳm nhất trong tâm hồn, là cái kho chứa tâm trạng và cách suy nghĩ ở tầng thâm sâu; mà đối tượng nội dung chứa trong cái kho này lại lẫn lộn tốt xấu, mâu thuẫn nhau. Lúc "nộ khí công tâm", xung kích cung tật ách, mệnh tạo rất dễ tranh cãi với người khác, nhất định sẽ dùng lời lẽ khắc bạc, độc mồm độc miệng khiến cho người ta phải kinh ngạc hình tượng thường ngày bị sụp đổ.</t>
+  </si>
+  <si>
+    <t>Cung tật ách đại biểu cho sinh mệnh và thể chất của mệnh tạo, còn cung phụ mẫu thì có hàm nghĩa "di truyền"; trường hợp cung phụ mẫu có Hóa Kị, là chủ về gene di truyền không được tốt; do Hóa Kị xung kích cung tật ách, nên tâm hồn và thể chất đều ngầm có nỗi lo. Lúc hành hạn khai động Hóa Kị ở cung phụ mẫu, hoặc có điềm triệu ở cung điền trạch của đại vận, thì bệnh tật do di truyền dễ bộc phát. Ngoài ra, vì tận nơi sâu thẳm nhất trong tâm hồn có cách suy nghĩ bế tắc, bị xung động, nên dễ sinh ra bệnh tâm lí, mệnh tạo có nguy cơ mắc chứng âu sầu, chứng cyclothyme cao hơn người người bình thường.</t>
   </si>
 </sst>
 </file>
@@ -3321,13 +3361,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3652,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:K854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I423" sqref="I423"/>
+    <sheetView tabSelected="1" topLeftCell="F425" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H426" sqref="H426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,7 +3705,8 @@
     <col min="3" max="3" width="42.5703125" style="1" customWidth="1"/>
     <col min="4" max="7" width="42.5703125" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
-    <col min="9" max="11" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" customWidth="1"/>
+    <col min="10" max="11" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7100,7 +7144,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -7110,8 +7154,26 @@
       <c r="C425" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D425" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -7120,6 +7182,30 @@
       </c>
       <c r="C426" s="1" t="s">
         <v>984</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="60" x14ac:dyDescent="0.25">
